--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2680550.416621867</v>
+        <v>2680068.422105473</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6016327.186826384</v>
+        <v>6436744.570497631</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603954.5928170964</v>
+        <v>352306.8458099729</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6926539.827585764</v>
+        <v>6964347.872918847</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>6.11896786784456</v>
+      </c>
+      <c r="C2" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="C2" t="n">
-        <v>6.023344779862555</v>
-      </c>
       <c r="D2" t="n">
-        <v>247.4939773019347</v>
+        <v>134.3398607027479</v>
       </c>
       <c r="E2" t="n">
+        <v>10.19681332827224</v>
+      </c>
+      <c r="F2" t="n">
+        <v>16.8201079258493</v>
+      </c>
+      <c r="G2" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="F2" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.641001266096112</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>59.9570013053827</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
         <v>115.7281862028015</v>
@@ -752,13 +752,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>37.00841578891828</v>
       </c>
       <c r="U3" t="n">
         <v>195.3773027531635</v>
@@ -803,10 +803,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>29.97154776676479</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>117.6211704824503</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>396.2072621063268</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>36.06015492799912</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
@@ -1034,16 +1034,16 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
-        <v>164.1096569529843</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
-        <v>157.8079400398083</v>
+        <v>142.5356622269773</v>
       </c>
     </row>
     <row r="7">
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>124.0998600375571</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
@@ -1119,10 +1119,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>122.2734976419321</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
         <v>16.8201079258493</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>384.8774717948093</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>250.5033668008612</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>110.6199347530832</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>180.6077930059085</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.6200261415066</v>
+        <v>341.4355598753964</v>
       </c>
       <c r="C11" t="n">
-        <v>376.5244030535246</v>
+        <v>341.3399367874144</v>
       </c>
       <c r="D11" t="n">
-        <v>370.9203488815315</v>
+        <v>335.7358826154219</v>
       </c>
       <c r="E11" t="n">
-        <v>380.6978716019343</v>
+        <v>345.5134053358241</v>
       </c>
       <c r="F11" t="n">
-        <v>387.3211661995114</v>
+        <v>352.1366999334011</v>
       </c>
       <c r="G11" t="n">
-        <v>375.1420595397582</v>
+        <v>339.9575932736479</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722213</v>
+        <v>243.116004406111</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975964</v>
+        <v>20.8048370636494</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275022</v>
+        <v>69.24485646139198</v>
       </c>
       <c r="T11" t="n">
-        <v>190.4854774862718</v>
+        <v>155.3010112201616</v>
       </c>
       <c r="U11" t="n">
-        <v>224.9909450967471</v>
+        <v>189.8064788306368</v>
       </c>
       <c r="V11" t="n">
-        <v>316.8402373905462</v>
+        <v>281.6557711244359</v>
       </c>
       <c r="W11" t="n">
-        <v>350.4237561298452</v>
+        <v>315.2392898637349</v>
       </c>
       <c r="X11" t="n">
-        <v>367.1380221263991</v>
+        <v>331.9535558602888</v>
       </c>
       <c r="Y11" t="n">
-        <v>367.4283645950529</v>
+        <v>332.2438983289426</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>121.1393013376558</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>104.6990307214525</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>93.21629023787091</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>94.61829898791555</v>
       </c>
       <c r="F13" t="n">
-        <v>56.7251458031602</v>
+        <v>98.30140663806648</v>
       </c>
       <c r="G13" t="n">
-        <v>136.0789454373741</v>
+        <v>100.8944791712638</v>
       </c>
       <c r="H13" t="n">
-        <v>118.61243891626</v>
+        <v>83.42797265014974</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037917</v>
+        <v>50.49917744426894</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501641</v>
+        <v>19.73658314890618</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125509</v>
+        <v>119.8444424464407</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>172.4698436406167</v>
       </c>
       <c r="U13" t="n">
-        <v>250.4712242529991</v>
+        <v>215.2867579868889</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835353</v>
+        <v>206.4634796174251</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198764</v>
+        <v>211.5955598537673</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925755</v>
+        <v>171.2770155264653</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.989399898785</v>
+        <v>157.8049336326748</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.6200261415066</v>
+        <v>341.4355598753965</v>
       </c>
       <c r="C14" t="n">
-        <v>376.5244030535246</v>
+        <v>341.3399367874144</v>
       </c>
       <c r="D14" t="n">
-        <v>370.9203488815321</v>
+        <v>335.7358826154219</v>
       </c>
       <c r="E14" t="n">
-        <v>380.6978716019343</v>
+        <v>345.5134053358241</v>
       </c>
       <c r="F14" t="n">
-        <v>387.3211661995114</v>
+        <v>352.1366999334012</v>
       </c>
       <c r="G14" t="n">
-        <v>375.1420595397582</v>
+        <v>339.9575932736481</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722213</v>
+        <v>243.1160044061111</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975964</v>
+        <v>20.80483706364949</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>104.4293227275022</v>
+        <v>69.24485646139206</v>
       </c>
       <c r="T14" t="n">
-        <v>190.4854774862718</v>
+        <v>155.3010112201617</v>
       </c>
       <c r="U14" t="n">
-        <v>224.9909450967471</v>
+        <v>189.8064788306369</v>
       </c>
       <c r="V14" t="n">
-        <v>316.8402373905462</v>
+        <v>281.655771124436</v>
       </c>
       <c r="W14" t="n">
-        <v>350.4237561298452</v>
+        <v>315.2392898637351</v>
       </c>
       <c r="X14" t="n">
-        <v>367.1380221263991</v>
+        <v>331.9535558602889</v>
       </c>
       <c r="Y14" t="n">
-        <v>367.4283645950529</v>
+        <v>332.2438983289427</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>121.1393013376559</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875627</v>
+        <v>104.6990307214526</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>93.21629023787099</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>94.61829898791564</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>98.30140663806657</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>100.8944791712639</v>
       </c>
       <c r="H16" t="n">
-        <v>118.61243891626</v>
+        <v>83.42797265014983</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037917</v>
+        <v>50.49917744426902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>19.7365831489055</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125509</v>
+        <v>119.8444424464408</v>
       </c>
       <c r="T16" t="n">
-        <v>207.654309906727</v>
+        <v>172.4698436406168</v>
       </c>
       <c r="U16" t="n">
-        <v>250.4712242529991</v>
+        <v>215.286757986889</v>
       </c>
       <c r="V16" t="n">
-        <v>241.6479458835353</v>
+        <v>206.4634796174252</v>
       </c>
       <c r="W16" t="n">
-        <v>246.7800261198764</v>
+        <v>211.5955598537663</v>
       </c>
       <c r="X16" t="n">
-        <v>106.6488155538364</v>
+        <v>171.2770155264654</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.989399898785</v>
+        <v>157.8049336326748</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>376.6200261415066</v>
+        <v>341.4355598753965</v>
       </c>
       <c r="C17" t="n">
-        <v>376.5244030535246</v>
+        <v>341.3399367874144</v>
       </c>
       <c r="D17" t="n">
-        <v>370.9203488815321</v>
+        <v>335.7358826154219</v>
       </c>
       <c r="E17" t="n">
-        <v>380.6978716019343</v>
+        <v>345.5134053358241</v>
       </c>
       <c r="F17" t="n">
-        <v>387.3211661995114</v>
+        <v>352.1366999334012</v>
       </c>
       <c r="G17" t="n">
-        <v>375.1420595397582</v>
+        <v>339.9575932736481</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722213</v>
+        <v>243.1160044061111</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975964</v>
+        <v>20.80483706364898</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>104.4293227275022</v>
+        <v>69.24485646139206</v>
       </c>
       <c r="T17" t="n">
-        <v>190.4854774862718</v>
+        <v>155.3010112201617</v>
       </c>
       <c r="U17" t="n">
-        <v>224.9909450967471</v>
+        <v>189.8064788306369</v>
       </c>
       <c r="V17" t="n">
-        <v>316.8402373905462</v>
+        <v>281.655771124436</v>
       </c>
       <c r="W17" t="n">
-        <v>350.4237561298452</v>
+        <v>315.2392898637351</v>
       </c>
       <c r="X17" t="n">
-        <v>367.1380221263991</v>
+        <v>331.9535558602889</v>
       </c>
       <c r="Y17" t="n">
-        <v>367.4283645950529</v>
+        <v>332.2438983289427</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>121.1393013376559</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>104.6990307214526</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>93.21629023787099</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540258</v>
+        <v>94.61829898791564</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>98.30140663806657</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>100.8944791712639</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.42797265014983</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037917</v>
+        <v>50.49917744426902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501641</v>
+        <v>19.7365831489055</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125509</v>
+        <v>119.8444424464408</v>
       </c>
       <c r="T19" t="n">
-        <v>207.654309906727</v>
+        <v>172.4698436406168</v>
       </c>
       <c r="U19" t="n">
-        <v>250.4712242529991</v>
+        <v>215.286757986889</v>
       </c>
       <c r="V19" t="n">
-        <v>241.6479458835353</v>
+        <v>206.4634796174252</v>
       </c>
       <c r="W19" t="n">
-        <v>246.7800261198764</v>
+        <v>211.5955598537663</v>
       </c>
       <c r="X19" t="n">
-        <v>180.4209367886169</v>
+        <v>171.2770155264654</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.989399898785</v>
+        <v>157.8049336326748</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>376.6200261415066</v>
+        <v>341.4355598753965</v>
       </c>
       <c r="C20" t="n">
-        <v>376.5244030535246</v>
+        <v>341.3399367874144</v>
       </c>
       <c r="D20" t="n">
-        <v>370.920348881532</v>
+        <v>335.7358826154219</v>
       </c>
       <c r="E20" t="n">
-        <v>380.6978716019343</v>
+        <v>345.5134053358241</v>
       </c>
       <c r="F20" t="n">
-        <v>387.3211661995113</v>
+        <v>352.1366999334012</v>
       </c>
       <c r="G20" t="n">
-        <v>375.1420595397581</v>
+        <v>339.957593273648</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722212</v>
+        <v>243.1160044061111</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975957</v>
+        <v>20.80483706364944</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>104.4293227275022</v>
+        <v>69.24485646139202</v>
       </c>
       <c r="T20" t="n">
-        <v>190.4854774862718</v>
+        <v>155.3010112201616</v>
       </c>
       <c r="U20" t="n">
-        <v>224.990945096747</v>
+        <v>189.8064788306369</v>
       </c>
       <c r="V20" t="n">
-        <v>316.8402373905461</v>
+        <v>281.655771124436</v>
       </c>
       <c r="W20" t="n">
-        <v>350.4237561298451</v>
+        <v>315.239289863735</v>
       </c>
       <c r="X20" t="n">
-        <v>367.138022126399</v>
+        <v>331.9535558602889</v>
       </c>
       <c r="Y20" t="n">
-        <v>367.4283645950528</v>
+        <v>332.2438983289427</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.56236697288437</v>
+        <v>121.1393013376558</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875627</v>
+        <v>104.6990307214525</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>93.21629023787095</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>94.61829898791575</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>98.30140663806652</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>100.8944791712639</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.42797265014978</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>50.49917744426898</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501635</v>
+        <v>19.73658314890622</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125508</v>
+        <v>119.8444424464407</v>
       </c>
       <c r="T22" t="n">
-        <v>207.6543099067269</v>
+        <v>172.4698436406168</v>
       </c>
       <c r="U22" t="n">
-        <v>250.4712242529991</v>
+        <v>215.286757986889</v>
       </c>
       <c r="V22" t="n">
-        <v>241.6479458835353</v>
+        <v>206.4634796174252</v>
       </c>
       <c r="W22" t="n">
-        <v>246.7800261198764</v>
+        <v>211.5955598537662</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925755</v>
+        <v>171.2770155264653</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.9893998987849</v>
+        <v>157.8049336326748</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>376.6200261415066</v>
+        <v>341.4355598753965</v>
       </c>
       <c r="C23" t="n">
-        <v>376.5244030535246</v>
+        <v>341.3399367874144</v>
       </c>
       <c r="D23" t="n">
-        <v>370.920348881532</v>
+        <v>335.7358826154219</v>
       </c>
       <c r="E23" t="n">
-        <v>380.6978716019343</v>
+        <v>345.5134053358241</v>
       </c>
       <c r="F23" t="n">
-        <v>387.3211661995113</v>
+        <v>352.1366999334012</v>
       </c>
       <c r="G23" t="n">
-        <v>375.1420595397581</v>
+        <v>339.957593273648</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722212</v>
+        <v>243.1160044061111</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975957</v>
+        <v>20.80483706364944</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>104.4293227275022</v>
+        <v>69.24485646139202</v>
       </c>
       <c r="T23" t="n">
-        <v>190.4854774862718</v>
+        <v>155.3010112201616</v>
       </c>
       <c r="U23" t="n">
-        <v>224.990945096747</v>
+        <v>189.8064788306369</v>
       </c>
       <c r="V23" t="n">
-        <v>316.8402373905461</v>
+        <v>281.655771124436</v>
       </c>
       <c r="W23" t="n">
-        <v>350.4237561298451</v>
+        <v>315.239289863735</v>
       </c>
       <c r="X23" t="n">
-        <v>367.138022126399</v>
+        <v>331.9535558602889</v>
       </c>
       <c r="Y23" t="n">
-        <v>367.4283645950528</v>
+        <v>332.2438983289427</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.56236697288437</v>
+        <v>121.1393013376558</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875627</v>
+        <v>104.6990307214525</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>93.21629023787095</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>94.61829898791559</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>98.30140663806652</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>100.8944791712639</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.42797265014978</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>50.49917744426898</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501635</v>
+        <v>19.73658314890622</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125508</v>
+        <v>119.8444424464407</v>
       </c>
       <c r="T25" t="n">
-        <v>207.6543099067269</v>
+        <v>172.4698436406168</v>
       </c>
       <c r="U25" t="n">
-        <v>250.4712242529991</v>
+        <v>215.286757986889</v>
       </c>
       <c r="V25" t="n">
-        <v>241.6479458835353</v>
+        <v>206.4634796174252</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198764</v>
+        <v>211.5955598537662</v>
       </c>
       <c r="X25" t="n">
-        <v>206.4614817925755</v>
+        <v>171.2770155264653</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.9893998987849</v>
+        <v>157.8049336326748</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>387.3211661995113</v>
       </c>
       <c r="G26" t="n">
-        <v>375.1420595397591</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H26" t="n">
         <v>278.3004706722212</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.04510745646595</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>23.90253786969275</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>207.6543099067269</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
-        <v>59.64309870642131</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>129.8027652540257</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>155.0289087125508</v>
@@ -3006,10 +3006,10 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U31" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>241.6479458835353</v>
+        <v>40.91123532509275</v>
       </c>
       <c r="W31" t="n">
         <v>246.7800261198764</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>128.4007565039811</v>
+        <v>92.19794998402841</v>
       </c>
       <c r="E34" t="n">
-        <v>61.04510745646594</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X34" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3426,7 +3426,7 @@
         <v>156.323767603766</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>136.078945437374</v>
+        <v>33.12209635668106</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
-        <v>200.6202780835285</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V37" t="n">
         <v>241.6479458835353</v>
@@ -3492,7 +3492,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="38">
@@ -3568,7 +3568,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X38" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263995</v>
       </c>
       <c r="Y38" t="n">
         <v>367.4283645950528</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.323767603766</v>
+        <v>103.7622202500679</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>155.0289087125508</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U40" t="n">
         <v>250.4712242529991</v>
@@ -3723,7 +3723,7 @@
         <v>241.6479458835353</v>
       </c>
       <c r="W40" t="n">
-        <v>125.9103462479684</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X40" t="n">
         <v>206.4614817925755</v>
@@ -3745,22 +3745,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D41" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E41" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F41" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G41" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H41" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I41" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975965</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>104.4293227275022</v>
       </c>
       <c r="T41" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862714</v>
       </c>
       <c r="U41" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V41" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W41" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X41" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y41" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>139.8834969875628</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E43" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F43" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I43" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501643</v>
       </c>
       <c r="S43" t="n">
-        <v>46.83303310737749</v>
+        <v>20.76471490995261</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U43" t="n">
         <v>250.4712242529991</v>
@@ -3966,7 +3966,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y43" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3994,7 +3994,7 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H44" t="n">
-        <v>278.3004706722222</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I44" t="n">
         <v>55.98930332975958</v>
@@ -4140,7 +4140,7 @@
         <v>139.8834969875627</v>
       </c>
       <c r="D46" t="n">
-        <v>128.4007565039811</v>
+        <v>62.42766323312681</v>
       </c>
       <c r="E46" t="n">
         <v>129.8027652540257</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>135.5821503438485</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I46" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V46" t="n">
         <v>241.6479458835353</v>
@@ -4200,10 +4200,10 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1166.517402081457</v>
+        <v>982.3863046601217</v>
       </c>
       <c r="C2" t="n">
-        <v>1160.433215435131</v>
+        <v>588.2925877407107</v>
       </c>
       <c r="D2" t="n">
-        <v>910.43929896853</v>
+        <v>452.595758748036</v>
       </c>
       <c r="E2" t="n">
-        <v>516.345582049119</v>
+        <v>442.2959473053368</v>
       </c>
       <c r="F2" t="n">
-        <v>122.251865129708</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="G2" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H2" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I2" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J2" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K2" t="n">
+        <v>417.4634743327321</v>
+      </c>
+      <c r="L2" t="n">
         <v>466.9476083001462</v>
-      </c>
-      <c r="L2" t="n">
-        <v>853.1988602528609</v>
       </c>
       <c r="M2" t="n">
         <v>853.1988602528609</v>
@@ -4360,22 +4360,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T2" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U2" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="V2" t="n">
-        <v>1560.611119000868</v>
+        <v>988.5670802842071</v>
       </c>
       <c r="W2" t="n">
-        <v>1560.611119000868</v>
+        <v>988.5670802842071</v>
       </c>
       <c r="X2" t="n">
-        <v>1560.611119000868</v>
+        <v>988.5670802842071</v>
       </c>
       <c r="Y2" t="n">
-        <v>1560.611119000868</v>
+        <v>988.5670802842071</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>636.6106205966921</v>
+        <v>582.3043602011305</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0479930154975</v>
+        <v>448.3092889500763</v>
       </c>
       <c r="D3" t="n">
-        <v>459.1508352348899</v>
+        <v>331.4121311694687</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6580192272179</v>
+        <v>210.9193151617967</v>
       </c>
       <c r="F3" t="n">
-        <v>229.6981394097224</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="G3" t="n">
-        <v>122.7080267240611</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H3" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I3" t="n">
         <v>31.21222238001735</v>
@@ -4415,22 +4415,22 @@
         <v>610.2763318953653</v>
       </c>
       <c r="L3" t="n">
-        <v>824.5154023641696</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M3" t="n">
-        <v>1210.766654316884</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="N3" t="n">
-        <v>1210.766654316884</v>
+        <v>996.52758384808</v>
       </c>
       <c r="O3" t="n">
-        <v>1210.766654316884</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P3" t="n">
-        <v>1210.766654316884</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q3" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R3" t="n">
         <v>1560.611119000868</v>
@@ -4439,22 +4439,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T3" t="n">
-        <v>1560.611119000868</v>
+        <v>1523.228880830243</v>
       </c>
       <c r="U3" t="n">
-        <v>1363.260308139086</v>
+        <v>1325.878069968462</v>
       </c>
       <c r="V3" t="n">
-        <v>1149.54878113212</v>
+        <v>1112.166542961495</v>
       </c>
       <c r="W3" t="n">
-        <v>936.3156128684487</v>
+        <v>898.9333746978243</v>
       </c>
       <c r="X3" t="n">
-        <v>936.3156128684487</v>
+        <v>722.6073928367172</v>
       </c>
       <c r="Y3" t="n">
-        <v>776.9136532322788</v>
+        <v>722.6073928367172</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61.48651305351714</v>
+        <v>799.8452450483271</v>
       </c>
       <c r="C4" t="n">
-        <v>61.48651305351714</v>
+        <v>799.8452450483271</v>
       </c>
       <c r="D4" t="n">
-        <v>61.48651305351714</v>
+        <v>640.3506003712371</v>
       </c>
       <c r="E4" t="n">
-        <v>31.21222238001735</v>
+        <v>479.4397852395565</v>
       </c>
       <c r="F4" t="n">
-        <v>31.21222238001735</v>
+        <v>314.8086593501478</v>
       </c>
       <c r="G4" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="H4" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I4" t="n">
         <v>31.21222238001735</v>
@@ -4515,25 +4515,25 @@
         <v>1475.338400676267</v>
       </c>
       <c r="S4" t="n">
-        <v>1288.946632556178</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T4" t="n">
-        <v>1049.39789353288</v>
+        <v>1356.529137562681</v>
       </c>
       <c r="U4" t="n">
-        <v>766.5997460790038</v>
+        <v>1073.730990108805</v>
       </c>
       <c r="V4" t="n">
-        <v>766.5997460790038</v>
+        <v>799.8452450483271</v>
       </c>
       <c r="W4" t="n">
-        <v>487.5300815878782</v>
+        <v>799.8452450483271</v>
       </c>
       <c r="X4" t="n">
-        <v>249.1862194475615</v>
+        <v>799.8452450483271</v>
       </c>
       <c r="Y4" t="n">
-        <v>249.1862194475615</v>
+        <v>799.8452450483271</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1684.200070875865</v>
+        <v>924.4408772426447</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.075480189135</v>
+        <v>514.3162865559148</v>
       </c>
       <c r="D5" t="n">
-        <v>873.8661245261785</v>
+        <v>513.8927606893793</v>
       </c>
       <c r="E5" t="n">
-        <v>459.5259090430753</v>
+        <v>503.5929492466801</v>
       </c>
       <c r="F5" t="n">
-        <v>442.5359010371669</v>
+        <v>486.6029412407717</v>
       </c>
       <c r="G5" t="n">
-        <v>33.80761692999901</v>
+        <v>77.87465713360382</v>
       </c>
       <c r="H5" t="n">
-        <v>33.80761692999901</v>
+        <v>77.87465713360382</v>
       </c>
       <c r="I5" t="n">
-        <v>33.80761692999901</v>
+        <v>41.45025821643299</v>
       </c>
       <c r="J5" t="n">
-        <v>33.80761692999901</v>
+        <v>295.6357296841873</v>
       </c>
       <c r="K5" t="n">
-        <v>33.80761692999901</v>
+        <v>533.672074536575</v>
       </c>
       <c r="L5" t="n">
-        <v>394.7164222841721</v>
+        <v>1046.619019964933</v>
       </c>
       <c r="M5" t="n">
-        <v>394.7164222841721</v>
+        <v>1559.565965393291</v>
       </c>
       <c r="N5" t="n">
-        <v>813.0856817929098</v>
+        <v>1559.565965393291</v>
       </c>
       <c r="O5" t="n">
-        <v>1231.454941301648</v>
+        <v>1559.565965393291</v>
       </c>
       <c r="P5" t="n">
-        <v>1649.824200810385</v>
+        <v>2072.512910821649</v>
       </c>
       <c r="Q5" t="n">
-        <v>1649.824200810385</v>
+        <v>2072.512910821649</v>
       </c>
       <c r="R5" t="n">
-        <v>1690.38084649995</v>
+        <v>2072.512910821649</v>
       </c>
       <c r="S5" t="n">
-        <v>1690.38084649995</v>
+        <v>1937.23183561575</v>
       </c>
       <c r="T5" t="n">
-        <v>1690.38084649995</v>
+        <v>1715.025351562609</v>
       </c>
       <c r="U5" t="n">
-        <v>1690.38084649995</v>
+        <v>1715.025351562609</v>
       </c>
       <c r="V5" t="n">
-        <v>1690.38084649995</v>
+        <v>1715.025351562609</v>
       </c>
       <c r="W5" t="n">
-        <v>1690.38084649995</v>
+        <v>1331.265050697777</v>
       </c>
       <c r="X5" t="n">
-        <v>1690.38084649995</v>
+        <v>930.6216528667301</v>
       </c>
       <c r="Y5" t="n">
-        <v>1690.38084649995</v>
+        <v>930.6216528667301</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>691.8898674367736</v>
+        <v>720.2811001029675</v>
       </c>
       <c r="C6" t="n">
-        <v>557.8947961857193</v>
+        <v>586.2860288519131</v>
       </c>
       <c r="D6" t="n">
-        <v>440.9976384051117</v>
+        <v>469.3888710713055</v>
       </c>
       <c r="E6" t="n">
-        <v>320.5048223974397</v>
+        <v>348.8960550636335</v>
       </c>
       <c r="F6" t="n">
-        <v>211.5449425799443</v>
+        <v>239.9361752461381</v>
       </c>
       <c r="G6" t="n">
-        <v>104.554829894283</v>
+        <v>132.9460625604768</v>
       </c>
       <c r="H6" t="n">
-        <v>33.80761692999901</v>
+        <v>62.19884959619282</v>
       </c>
       <c r="I6" t="n">
-        <v>33.80761692999901</v>
+        <v>41.45025821643299</v>
       </c>
       <c r="J6" t="n">
-        <v>33.80761692999901</v>
+        <v>234.2631157790662</v>
       </c>
       <c r="K6" t="n">
-        <v>452.1768764387367</v>
+        <v>690.069372044365</v>
       </c>
       <c r="L6" t="n">
-        <v>870.5461359474743</v>
+        <v>1180.161981346678</v>
       </c>
       <c r="M6" t="n">
-        <v>870.5461359474743</v>
+        <v>1180.161981346678</v>
       </c>
       <c r="N6" t="n">
-        <v>870.5461359474743</v>
+        <v>1180.161981346678</v>
       </c>
       <c r="O6" t="n">
-        <v>922.167122307229</v>
+        <v>1180.161981346678</v>
       </c>
       <c r="P6" t="n">
-        <v>1340.536381815967</v>
+        <v>1693.108926775036</v>
       </c>
       <c r="Q6" t="n">
-        <v>1690.38084649995</v>
+        <v>2042.953391459019</v>
       </c>
       <c r="R6" t="n">
-        <v>1690.38084649995</v>
+        <v>2072.512910821649</v>
       </c>
       <c r="S6" t="n">
-        <v>1690.38084649995</v>
+        <v>1964.522900935958</v>
       </c>
       <c r="T6" t="n">
-        <v>1531.038982686958</v>
+        <v>1805.181037122966</v>
       </c>
       <c r="U6" t="n">
-        <v>1333.688171825177</v>
+        <v>1607.830226261185</v>
       </c>
       <c r="V6" t="n">
-        <v>1333.688171825177</v>
+        <v>1394.118699254219</v>
       </c>
       <c r="W6" t="n">
-        <v>1167.920841569637</v>
+        <v>1180.885530990548</v>
       </c>
       <c r="X6" t="n">
-        <v>991.5948597085302</v>
+        <v>1004.55954912944</v>
       </c>
       <c r="Y6" t="n">
-        <v>832.1929000723602</v>
+        <v>860.5841327385541</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>364.3956340453725</v>
+        <v>157.7963041121068</v>
       </c>
       <c r="C7" t="n">
-        <v>193.302261607089</v>
+        <v>157.7963041121068</v>
       </c>
       <c r="D7" t="n">
-        <v>33.80761692999901</v>
+        <v>157.7963041121068</v>
       </c>
       <c r="E7" t="n">
-        <v>33.80761692999901</v>
+        <v>157.7963041121068</v>
       </c>
       <c r="F7" t="n">
-        <v>33.80761692999901</v>
+        <v>157.7963041121068</v>
       </c>
       <c r="G7" t="n">
-        <v>33.80761692999901</v>
+        <v>157.7963041121068</v>
       </c>
       <c r="H7" t="n">
-        <v>33.80761692999901</v>
+        <v>157.7963041121068</v>
       </c>
       <c r="I7" t="n">
-        <v>33.80761692999901</v>
+        <v>41.45025821643299</v>
       </c>
       <c r="J7" t="n">
-        <v>47.89016633520953</v>
+        <v>55.53280762164351</v>
       </c>
       <c r="K7" t="n">
-        <v>202.4424940574475</v>
+        <v>210.0851353438815</v>
       </c>
       <c r="L7" t="n">
-        <v>462.3395943375081</v>
+        <v>469.9822356239421</v>
       </c>
       <c r="M7" t="n">
-        <v>751.6036507780013</v>
+        <v>759.2462920644354</v>
       </c>
       <c r="N7" t="n">
-        <v>1032.442433172252</v>
+        <v>1040.085074458686</v>
       </c>
       <c r="O7" t="n">
-        <v>1292.003043498726</v>
+        <v>1299.64568478516</v>
       </c>
       <c r="P7" t="n">
-        <v>1497.678483748338</v>
+        <v>1505.321125034772</v>
       </c>
       <c r="Q7" t="n">
-        <v>1563.206513550849</v>
+        <v>1570.849154837283</v>
       </c>
       <c r="R7" t="n">
-        <v>1563.206513550849</v>
+        <v>1485.576436512682</v>
       </c>
       <c r="S7" t="n">
-        <v>1563.206513550849</v>
+        <v>1299.184668392593</v>
       </c>
       <c r="T7" t="n">
-        <v>1323.657774527551</v>
+        <v>1299.184668392593</v>
       </c>
       <c r="U7" t="n">
-        <v>1040.859627073675</v>
+        <v>1173.831274415262</v>
       </c>
       <c r="V7" t="n">
-        <v>766.9738820131972</v>
+        <v>899.9455293547844</v>
       </c>
       <c r="W7" t="n">
-        <v>487.9042175220716</v>
+        <v>620.8758648636588</v>
       </c>
       <c r="X7" t="n">
-        <v>487.9042175220716</v>
+        <v>382.5320027233421</v>
       </c>
       <c r="Y7" t="n">
-        <v>364.3956340453725</v>
+        <v>157.7963041121068</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>888.3313057386429</v>
+        <v>80.25049765783463</v>
       </c>
       <c r="C8" t="n">
-        <v>882.247119092317</v>
+        <v>74.16631101150881</v>
       </c>
       <c r="D8" t="n">
-        <v>477.7831891853775</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E8" t="n">
         <v>63.44297370227418</v>
@@ -4807,22 +4807,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L8" t="n">
-        <v>216.5644706858345</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M8" t="n">
-        <v>733.4074053521598</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N8" t="n">
-        <v>1250.250340018485</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O8" t="n">
-        <v>1767.09327468481</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
         <v>2088.254281480102</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X8" t="n">
-        <v>1699.489158455042</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="Y8" t="n">
-        <v>1298.552485403132</v>
+        <v>86.43127328192004</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="L9" t="n">
-        <v>508.1659581184966</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="M9" t="n">
-        <v>1025.008892784822</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N9" t="n">
-        <v>1025.008892784822</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>538.4003990889748</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>367.3070266506913</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>367.3070266506913</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>206.3962115190108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
         <v>41.76508562960205</v>
@@ -4989,25 +4989,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1485.891263925851</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>1203.093116471976</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V10" t="n">
-        <v>929.2073714114977</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W10" t="n">
-        <v>650.137706920372</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X10" t="n">
-        <v>650.137706920372</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="Y10" t="n">
-        <v>650.137706920372</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2340.613014133291</v>
+        <v>2080.954409242187</v>
       </c>
       <c r="C11" t="n">
-        <v>1960.285334281245</v>
+        <v>1736.166594305404</v>
       </c>
       <c r="D11" t="n">
-        <v>1585.618315208991</v>
+        <v>1397.039440148413</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.075010560573</v>
+        <v>1048.036000415257</v>
       </c>
       <c r="F11" t="n">
-        <v>809.8415093489451</v>
+        <v>692.3423641188924</v>
       </c>
       <c r="G11" t="n">
-        <v>430.9101360764621</v>
+        <v>348.9508557616723</v>
       </c>
       <c r="H11" t="n">
-        <v>149.7985495388648</v>
+        <v>103.3791341393379</v>
       </c>
       <c r="I11" t="n">
-        <v>93.2436976906228</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583771</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674165</v>
+        <v>620.5236483153982</v>
       </c>
       <c r="L11" t="n">
-        <v>1598.180070079655</v>
+        <v>1333.115048127636</v>
       </c>
       <c r="M11" t="n">
-        <v>2374.498661071409</v>
+        <v>2109.43363911939</v>
       </c>
       <c r="N11" t="n">
-        <v>3127.679677710027</v>
+        <v>2862.614655758008</v>
       </c>
       <c r="O11" t="n">
-        <v>3771.310534127132</v>
+        <v>3506.245512175113</v>
       </c>
       <c r="P11" t="n">
-        <v>4300.467232046283</v>
+        <v>4035.402210094265</v>
       </c>
       <c r="Q11" t="n">
-        <v>4621.628238841575</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="R11" t="n">
-        <v>4662.18488453114</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="S11" t="n">
-        <v>4556.700720159925</v>
+        <v>4048.263060861983</v>
       </c>
       <c r="T11" t="n">
-        <v>4364.291146941469</v>
+        <v>3891.393352558789</v>
       </c>
       <c r="U11" t="n">
-        <v>4137.027566035665</v>
+        <v>3699.669636568246</v>
       </c>
       <c r="V11" t="n">
-        <v>3816.98692220683</v>
+        <v>3415.168857654674</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.023532176683</v>
+        <v>3096.745332539791</v>
       </c>
       <c r="X11" t="n">
-        <v>3092.17704518032</v>
+        <v>2761.438710458691</v>
       </c>
       <c r="Y11" t="n">
-        <v>2721.037282963095</v>
+        <v>2425.838813156729</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>772.0745395771571</v>
+        <v>761.1949890928931</v>
       </c>
       <c r="C12" t="n">
-        <v>638.0794683261029</v>
+        <v>627.1999178418388</v>
       </c>
       <c r="D12" t="n">
-        <v>521.1823105454953</v>
+        <v>510.3027600612312</v>
       </c>
       <c r="E12" t="n">
-        <v>400.6894945378233</v>
+        <v>389.8099440535592</v>
       </c>
       <c r="F12" t="n">
-        <v>291.7296147203278</v>
+        <v>280.8500642360638</v>
       </c>
       <c r="G12" t="n">
-        <v>184.7395020346666</v>
+        <v>173.8599515504025</v>
       </c>
       <c r="H12" t="n">
-        <v>113.9922890703826</v>
+        <v>103.1127385861185</v>
       </c>
       <c r="I12" t="n">
-        <v>93.2436976906228</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="M12" t="n">
-        <v>936.2207783851894</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="N12" t="n">
-        <v>1809.878870496807</v>
+        <v>483.7863759758209</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.732893541123</v>
+        <v>1749.449359010245</v>
       </c>
       <c r="Q12" t="n">
-        <v>2139.732893541123</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="R12" t="n">
-        <v>2139.732893541123</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="S12" t="n">
-        <v>2031.742883655432</v>
+        <v>2020.863333171168</v>
       </c>
       <c r="T12" t="n">
-        <v>1872.40101984244</v>
+        <v>1861.521469358176</v>
       </c>
       <c r="U12" t="n">
-        <v>1675.050208980659</v>
+        <v>1664.170658496394</v>
       </c>
       <c r="V12" t="n">
-        <v>1461.338681973692</v>
+        <v>1450.459131489428</v>
       </c>
       <c r="W12" t="n">
-        <v>1248.105513710021</v>
+        <v>1237.225963225757</v>
       </c>
       <c r="X12" t="n">
-        <v>1071.779531848914</v>
+        <v>1060.89998136465</v>
       </c>
       <c r="Y12" t="n">
-        <v>912.3775722127438</v>
+        <v>901.4980217284798</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>494.3549844251414</v>
+        <v>714.3405672578617</v>
       </c>
       <c r="C13" t="n">
-        <v>494.3549844251414</v>
+        <v>608.5839705695258</v>
       </c>
       <c r="D13" t="n">
-        <v>494.3549844251414</v>
+        <v>514.4261016423835</v>
       </c>
       <c r="E13" t="n">
-        <v>494.3549844251414</v>
+        <v>418.8520622606507</v>
       </c>
       <c r="F13" t="n">
-        <v>437.0568573512422</v>
+        <v>319.5577121211895</v>
       </c>
       <c r="G13" t="n">
-        <v>299.6033771114704</v>
+        <v>217.6440967966806</v>
       </c>
       <c r="H13" t="n">
-        <v>179.7928327516119</v>
+        <v>133.3734173520849</v>
       </c>
       <c r="I13" t="n">
-        <v>93.2436976906228</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J13" t="n">
-        <v>136.5301994049079</v>
+        <v>160.4832705240929</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362204</v>
+        <v>379.0721721588545</v>
       </c>
       <c r="L13" t="n">
-        <v>609.3875320253555</v>
+        <v>703.0058463514388</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749234</v>
+        <v>1056.306476704456</v>
       </c>
       <c r="N13" t="n">
-        <v>1237.898275478248</v>
+        <v>1401.18183301123</v>
       </c>
       <c r="O13" t="n">
-        <v>1526.662838113797</v>
+        <v>1724.779017250228</v>
       </c>
       <c r="P13" t="n">
-        <v>1761.542230672484</v>
+        <v>1994.491031412364</v>
       </c>
       <c r="Q13" t="n">
-        <v>1856.27421278407</v>
+        <v>2124.055635127398</v>
       </c>
       <c r="R13" t="n">
-        <v>1800.798405294154</v>
+        <v>2104.119692552745</v>
       </c>
       <c r="S13" t="n">
-        <v>1644.203548008749</v>
+        <v>1983.064700182603</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.203548008749</v>
+        <v>1808.852736909253</v>
       </c>
       <c r="U13" t="n">
-        <v>1391.202311389558</v>
+        <v>1591.391365205325</v>
       </c>
       <c r="V13" t="n">
-        <v>1147.113477163765</v>
+        <v>1382.842395894794</v>
       </c>
       <c r="W13" t="n">
-        <v>897.8407235073238</v>
+        <v>1169.109507153615</v>
       </c>
       <c r="X13" t="n">
-        <v>689.2937722016919</v>
+        <v>996.1024207632461</v>
       </c>
       <c r="Y13" t="n">
-        <v>494.3549844251414</v>
+        <v>836.7034979019585</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2340.613014133291</v>
+        <v>2080.954409242187</v>
       </c>
       <c r="C14" t="n">
-        <v>1960.285334281246</v>
+        <v>1736.166594305405</v>
       </c>
       <c r="D14" t="n">
-        <v>1585.618315208991</v>
+        <v>1397.039440148413</v>
       </c>
       <c r="E14" t="n">
-        <v>1201.075010560573</v>
+        <v>1048.036000415258</v>
       </c>
       <c r="F14" t="n">
-        <v>809.8415093489451</v>
+        <v>692.3423641188926</v>
       </c>
       <c r="G14" t="n">
-        <v>430.9101360764621</v>
+        <v>348.9508557616724</v>
       </c>
       <c r="H14" t="n">
-        <v>149.7985495388648</v>
+        <v>103.379134139338</v>
       </c>
       <c r="I14" t="n">
-        <v>93.2436976906228</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583771</v>
+        <v>336.549618674113</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674165</v>
+        <v>874.7091197831526</v>
       </c>
       <c r="L14" t="n">
-        <v>1598.180070079655</v>
+        <v>1587.300519595391</v>
       </c>
       <c r="M14" t="n">
-        <v>2374.498661071409</v>
+        <v>2363.619110587144</v>
       </c>
       <c r="N14" t="n">
-        <v>3127.679677710027</v>
+        <v>3116.800127225762</v>
       </c>
       <c r="O14" t="n">
-        <v>3771.310534127132</v>
+        <v>3756.489707833077</v>
       </c>
       <c r="P14" t="n">
-        <v>4300.467232046283</v>
+        <v>3756.489707833077</v>
       </c>
       <c r="Q14" t="n">
-        <v>4621.628238841575</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="R14" t="n">
-        <v>4662.18488453114</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="S14" t="n">
-        <v>4556.700720159926</v>
+        <v>4048.263060861983</v>
       </c>
       <c r="T14" t="n">
-        <v>4364.29114694147</v>
+        <v>3891.393352558789</v>
       </c>
       <c r="U14" t="n">
-        <v>4137.027566035666</v>
+        <v>3699.669636568247</v>
       </c>
       <c r="V14" t="n">
-        <v>3816.986922206831</v>
+        <v>3415.168857654675</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176685</v>
+        <v>3096.745332539791</v>
       </c>
       <c r="X14" t="n">
-        <v>3092.177045180321</v>
+        <v>2761.438710458691</v>
       </c>
       <c r="Y14" t="n">
-        <v>2721.037282963096</v>
+        <v>2425.838813156729</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>772.0745395771571</v>
+        <v>761.1949890928931</v>
       </c>
       <c r="C15" t="n">
-        <v>638.0794683261029</v>
+        <v>627.1999178418388</v>
       </c>
       <c r="D15" t="n">
-        <v>521.1823105454953</v>
+        <v>510.3027600612312</v>
       </c>
       <c r="E15" t="n">
-        <v>400.6894945378233</v>
+        <v>389.8099440535592</v>
       </c>
       <c r="F15" t="n">
-        <v>291.7296147203278</v>
+        <v>280.8500642360638</v>
       </c>
       <c r="G15" t="n">
-        <v>184.7395020346666</v>
+        <v>173.8599515504025</v>
       </c>
       <c r="H15" t="n">
-        <v>113.9922890703826</v>
+        <v>103.1127385861185</v>
       </c>
       <c r="I15" t="n">
-        <v>93.2436976906228</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J15" t="n">
-        <v>286.056555253256</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="K15" t="n">
-        <v>741.8628115185547</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="L15" t="n">
-        <v>741.8628115185547</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="M15" t="n">
-        <v>1584.839892213121</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="N15" t="n">
-        <v>2139.732893541123</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1749.449359010245</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="R15" t="n">
-        <v>2139.732893541123</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="S15" t="n">
-        <v>2031.742883655432</v>
+        <v>2020.863333171168</v>
       </c>
       <c r="T15" t="n">
-        <v>1872.40101984244</v>
+        <v>1861.521469358176</v>
       </c>
       <c r="U15" t="n">
-        <v>1675.050208980659</v>
+        <v>1664.170658496394</v>
       </c>
       <c r="V15" t="n">
-        <v>1461.338681973692</v>
+        <v>1450.459131489428</v>
       </c>
       <c r="W15" t="n">
-        <v>1248.105513710021</v>
+        <v>1237.225963225757</v>
       </c>
       <c r="X15" t="n">
-        <v>1071.779531848914</v>
+        <v>1060.89998136465</v>
       </c>
       <c r="Y15" t="n">
-        <v>912.3775722127438</v>
+        <v>901.4980217284798</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>440.8998387150691</v>
+        <v>714.3405672578622</v>
       </c>
       <c r="C16" t="n">
-        <v>299.6033771114704</v>
+        <v>608.5839705695263</v>
       </c>
       <c r="D16" t="n">
-        <v>299.6033771114704</v>
+        <v>514.4261016423839</v>
       </c>
       <c r="E16" t="n">
-        <v>299.6033771114704</v>
+        <v>418.8520622606509</v>
       </c>
       <c r="F16" t="n">
-        <v>299.6033771114704</v>
+        <v>319.5577121211898</v>
       </c>
       <c r="G16" t="n">
-        <v>299.6033771114704</v>
+        <v>217.6440967966807</v>
       </c>
       <c r="H16" t="n">
-        <v>179.7928327516119</v>
+        <v>133.373417352085</v>
       </c>
       <c r="I16" t="n">
-        <v>93.2436976906228</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J16" t="n">
-        <v>136.5301994049079</v>
+        <v>160.4832705240928</v>
       </c>
       <c r="K16" t="n">
-        <v>320.2864794362204</v>
+        <v>379.0721721588544</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253555</v>
+        <v>703.0058463514385</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749234</v>
+        <v>1056.306476704455</v>
       </c>
       <c r="N16" t="n">
-        <v>1237.898275478248</v>
+        <v>1401.181833011229</v>
       </c>
       <c r="O16" t="n">
-        <v>1526.662838113797</v>
+        <v>1724.779017250227</v>
       </c>
       <c r="P16" t="n">
-        <v>1761.542230672484</v>
+        <v>1994.491031412363</v>
       </c>
       <c r="Q16" t="n">
-        <v>1856.27421278407</v>
+        <v>2124.055635127398</v>
       </c>
       <c r="R16" t="n">
-        <v>1856.27421278407</v>
+        <v>2104.119692552746</v>
       </c>
       <c r="S16" t="n">
-        <v>1699.679355498665</v>
+        <v>1983.064700182603</v>
       </c>
       <c r="T16" t="n">
-        <v>1489.927527310051</v>
+        <v>1808.852736909253</v>
       </c>
       <c r="U16" t="n">
-        <v>1236.92629069086</v>
+        <v>1591.391365205325</v>
       </c>
       <c r="V16" t="n">
-        <v>992.8374564650669</v>
+        <v>1382.842395894794</v>
       </c>
       <c r="W16" t="n">
-        <v>743.5647028086261</v>
+        <v>1169.109507153616</v>
       </c>
       <c r="X16" t="n">
-        <v>635.8386264916196</v>
+        <v>996.1024207632468</v>
       </c>
       <c r="Y16" t="n">
-        <v>440.8998387150691</v>
+        <v>836.7034979019591</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2340.613014133291</v>
+        <v>2080.954409242187</v>
       </c>
       <c r="C17" t="n">
-        <v>1960.285334281246</v>
+        <v>1736.166594305405</v>
       </c>
       <c r="D17" t="n">
-        <v>1585.618315208991</v>
+        <v>1397.039440148413</v>
       </c>
       <c r="E17" t="n">
-        <v>1201.075010560573</v>
+        <v>1048.036000415257</v>
       </c>
       <c r="F17" t="n">
-        <v>809.8415093489451</v>
+        <v>692.3423641188922</v>
       </c>
       <c r="G17" t="n">
-        <v>430.9101360764621</v>
+        <v>348.9508557616719</v>
       </c>
       <c r="H17" t="n">
-        <v>149.7985495388648</v>
+        <v>103.3791341393375</v>
       </c>
       <c r="I17" t="n">
-        <v>93.2436976906228</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583771</v>
+        <v>336.549618674113</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>874.7091197831526</v>
       </c>
       <c r="L17" t="n">
-        <v>1598.180070079655</v>
+        <v>1587.300519595391</v>
       </c>
       <c r="M17" t="n">
-        <v>2374.498661071409</v>
+        <v>2363.619110587144</v>
       </c>
       <c r="N17" t="n">
-        <v>3127.679677710027</v>
+        <v>3116.800127225762</v>
       </c>
       <c r="O17" t="n">
-        <v>3771.310534127132</v>
+        <v>3760.430983642867</v>
       </c>
       <c r="P17" t="n">
-        <v>4300.467232046283</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="Q17" t="n">
-        <v>4621.628238841575</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="R17" t="n">
-        <v>4662.18488453114</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="S17" t="n">
-        <v>4556.700720159926</v>
+        <v>4048.263060861982</v>
       </c>
       <c r="T17" t="n">
-        <v>4364.29114694147</v>
+        <v>3891.393352558789</v>
       </c>
       <c r="U17" t="n">
-        <v>4137.027566035666</v>
+        <v>3699.669636568247</v>
       </c>
       <c r="V17" t="n">
-        <v>3816.986922206831</v>
+        <v>3415.168857654675</v>
       </c>
       <c r="W17" t="n">
-        <v>3463.023532176685</v>
+        <v>3096.745332539791</v>
       </c>
       <c r="X17" t="n">
-        <v>3092.177045180321</v>
+        <v>2761.438710458691</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.037282963096</v>
+        <v>2425.838813156729</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>772.0745395771571</v>
+        <v>761.1949890928931</v>
       </c>
       <c r="C18" t="n">
-        <v>638.0794683261029</v>
+        <v>627.1999178418388</v>
       </c>
       <c r="D18" t="n">
-        <v>521.1823105454953</v>
+        <v>510.3027600612312</v>
       </c>
       <c r="E18" t="n">
-        <v>400.6894945378233</v>
+        <v>389.8099440535592</v>
       </c>
       <c r="F18" t="n">
-        <v>291.7296147203278</v>
+        <v>280.8500642360638</v>
       </c>
       <c r="G18" t="n">
-        <v>184.7395020346666</v>
+        <v>173.8599515504025</v>
       </c>
       <c r="H18" t="n">
-        <v>113.9922890703826</v>
+        <v>103.1127385861185</v>
       </c>
       <c r="I18" t="n">
-        <v>93.2436976906228</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J18" t="n">
-        <v>286.056555253256</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="K18" t="n">
-        <v>741.8628115185547</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="L18" t="n">
-        <v>741.8628115185547</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="M18" t="n">
-        <v>741.8628115185547</v>
+        <v>1395.336733148334</v>
       </c>
       <c r="N18" t="n">
-        <v>1615.520903630173</v>
+        <v>1395.336733148334</v>
       </c>
       <c r="O18" t="n">
-        <v>1760.328909494509</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="P18" t="n">
-        <v>1760.328909494509</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="R18" t="n">
-        <v>2139.732893541123</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="S18" t="n">
-        <v>2031.742883655432</v>
+        <v>2020.863333171168</v>
       </c>
       <c r="T18" t="n">
-        <v>1872.40101984244</v>
+        <v>1861.521469358176</v>
       </c>
       <c r="U18" t="n">
-        <v>1675.050208980659</v>
+        <v>1664.170658496394</v>
       </c>
       <c r="V18" t="n">
-        <v>1461.338681973692</v>
+        <v>1450.459131489428</v>
       </c>
       <c r="W18" t="n">
-        <v>1248.105513710021</v>
+        <v>1237.225963225757</v>
       </c>
       <c r="X18" t="n">
-        <v>1071.779531848914</v>
+        <v>1060.89998136465</v>
       </c>
       <c r="Y18" t="n">
-        <v>912.3775722127438</v>
+        <v>901.4980217284798</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>310.9067370486076</v>
+        <v>714.3405672578622</v>
       </c>
       <c r="C19" t="n">
-        <v>310.9067370486076</v>
+        <v>608.5839705695263</v>
       </c>
       <c r="D19" t="n">
-        <v>310.9067370486076</v>
+        <v>514.4261016423839</v>
       </c>
       <c r="E19" t="n">
-        <v>179.7928327516119</v>
+        <v>418.8520622606509</v>
       </c>
       <c r="F19" t="n">
-        <v>179.7928327516119</v>
+        <v>319.5577121211898</v>
       </c>
       <c r="G19" t="n">
-        <v>179.7928327516119</v>
+        <v>217.6440967966807</v>
       </c>
       <c r="H19" t="n">
-        <v>179.7928327516119</v>
+        <v>133.373417352085</v>
       </c>
       <c r="I19" t="n">
-        <v>93.2436976906228</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J19" t="n">
-        <v>136.5301994049079</v>
+        <v>160.4832705240928</v>
       </c>
       <c r="K19" t="n">
-        <v>320.2864794362204</v>
+        <v>379.0721721588544</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253555</v>
+        <v>703.0058463514385</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749234</v>
+        <v>1056.306476704455</v>
       </c>
       <c r="N19" t="n">
-        <v>1237.898275478248</v>
+        <v>1401.181833011229</v>
       </c>
       <c r="O19" t="n">
-        <v>1526.662838113797</v>
+        <v>1724.779017250227</v>
       </c>
       <c r="P19" t="n">
-        <v>1761.542230672484</v>
+        <v>1994.491031412363</v>
       </c>
       <c r="Q19" t="n">
-        <v>1856.27421278407</v>
+        <v>2124.055635127398</v>
       </c>
       <c r="R19" t="n">
-        <v>1800.798405294154</v>
+        <v>2104.119692552746</v>
       </c>
       <c r="S19" t="n">
-        <v>1644.203548008749</v>
+        <v>1983.064700182603</v>
       </c>
       <c r="T19" t="n">
-        <v>1434.451719820136</v>
+        <v>1808.852736909253</v>
       </c>
       <c r="U19" t="n">
-        <v>1181.450483200945</v>
+        <v>1591.391365205325</v>
       </c>
       <c r="V19" t="n">
-        <v>937.3616489751514</v>
+        <v>1382.842395894794</v>
       </c>
       <c r="W19" t="n">
-        <v>688.0888953187106</v>
+        <v>1169.109507153616</v>
       </c>
       <c r="X19" t="n">
-        <v>505.8455248251581</v>
+        <v>996.1024207632468</v>
       </c>
       <c r="Y19" t="n">
-        <v>310.9067370486076</v>
+        <v>836.7034979019591</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2340.613014133291</v>
+        <v>2080.954409242187</v>
       </c>
       <c r="C20" t="n">
-        <v>1960.285334281245</v>
+        <v>1736.166594305405</v>
       </c>
       <c r="D20" t="n">
-        <v>1585.618315208991</v>
+        <v>1397.039440148413</v>
       </c>
       <c r="E20" t="n">
-        <v>1201.075010560572</v>
+        <v>1048.036000415257</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489448</v>
+        <v>692.3423641188925</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764619</v>
+        <v>348.9508557616723</v>
       </c>
       <c r="H20" t="n">
-        <v>149.7985495388648</v>
+        <v>103.3791341393379</v>
       </c>
       <c r="I20" t="n">
-        <v>93.2436976906228</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583776</v>
+        <v>336.549618674113</v>
       </c>
       <c r="K20" t="n">
-        <v>885.588670267417</v>
+        <v>662.7721528495028</v>
       </c>
       <c r="L20" t="n">
-        <v>1598.180070079655</v>
+        <v>1375.363552661741</v>
       </c>
       <c r="M20" t="n">
-        <v>2374.498661071409</v>
+        <v>2151.682143653495</v>
       </c>
       <c r="N20" t="n">
-        <v>3127.679677710027</v>
+        <v>2904.863160292113</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127131</v>
+        <v>3548.494016709218</v>
       </c>
       <c r="P20" t="n">
-        <v>4300.467232046283</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="Q20" t="n">
-        <v>4621.628238841575</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="R20" t="n">
-        <v>4662.18488453114</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="S20" t="n">
-        <v>4556.700720159925</v>
+        <v>4048.263060861982</v>
       </c>
       <c r="T20" t="n">
-        <v>4364.291146941469</v>
+        <v>3891.393352558789</v>
       </c>
       <c r="U20" t="n">
-        <v>4137.027566035665</v>
+        <v>3699.669636568247</v>
       </c>
       <c r="V20" t="n">
-        <v>3816.98692220683</v>
+        <v>3415.168857654675</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176683</v>
+        <v>3096.745332539791</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.17704518032</v>
+        <v>2761.438710458691</v>
       </c>
       <c r="Y20" t="n">
-        <v>2721.037282963096</v>
+        <v>2425.838813156729</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>772.0745395771571</v>
+        <v>761.1949890928931</v>
       </c>
       <c r="C21" t="n">
-        <v>638.0794683261029</v>
+        <v>627.1999178418388</v>
       </c>
       <c r="D21" t="n">
-        <v>521.1823105454953</v>
+        <v>510.3027600612312</v>
       </c>
       <c r="E21" t="n">
-        <v>400.6894945378233</v>
+        <v>389.8099440535592</v>
       </c>
       <c r="F21" t="n">
-        <v>291.7296147203278</v>
+        <v>280.8500642360638</v>
       </c>
       <c r="G21" t="n">
-        <v>184.7395020346666</v>
+        <v>173.8599515504025</v>
       </c>
       <c r="H21" t="n">
-        <v>113.9922890703826</v>
+        <v>103.1127385861185</v>
       </c>
       <c r="I21" t="n">
-        <v>93.2436976906228</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1392.071432953579</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>1424.896252510964</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1424.896252510964</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="R21" t="n">
-        <v>2139.732893541123</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="S21" t="n">
-        <v>2031.742883655432</v>
+        <v>2020.863333171168</v>
       </c>
       <c r="T21" t="n">
-        <v>1872.40101984244</v>
+        <v>1861.521469358176</v>
       </c>
       <c r="U21" t="n">
-        <v>1675.050208980659</v>
+        <v>1664.170658496394</v>
       </c>
       <c r="V21" t="n">
-        <v>1461.338681973692</v>
+        <v>1450.459131489428</v>
       </c>
       <c r="W21" t="n">
-        <v>1248.105513710021</v>
+        <v>1237.225963225757</v>
       </c>
       <c r="X21" t="n">
-        <v>1071.779531848914</v>
+        <v>1060.89998136465</v>
       </c>
       <c r="Y21" t="n">
-        <v>912.3775722127438</v>
+        <v>901.4980217284798</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>234.5401592942214</v>
+        <v>714.3405672578621</v>
       </c>
       <c r="C22" t="n">
-        <v>93.2436976906228</v>
+        <v>608.5839705695262</v>
       </c>
       <c r="D22" t="n">
-        <v>93.2436976906228</v>
+        <v>514.4261016423839</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>418.8520622606508</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>319.5577121211896</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>217.6440967966807</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>133.3734173520849</v>
       </c>
       <c r="I22" t="n">
-        <v>93.2436976906228</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J22" t="n">
-        <v>136.5301994049079</v>
+        <v>160.4832705240929</v>
       </c>
       <c r="K22" t="n">
-        <v>320.2864794362205</v>
+        <v>379.0721721588545</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253558</v>
+        <v>703.0058463514387</v>
       </c>
       <c r="M22" t="n">
-        <v>927.8555407749236</v>
+        <v>1056.306476704456</v>
       </c>
       <c r="N22" t="n">
-        <v>1237.898275478248</v>
+        <v>1401.18183301123</v>
       </c>
       <c r="O22" t="n">
-        <v>1526.662838113797</v>
+        <v>1724.779017250227</v>
       </c>
       <c r="P22" t="n">
-        <v>1761.542230672484</v>
+        <v>1994.491031412363</v>
       </c>
       <c r="Q22" t="n">
-        <v>1856.27421278407</v>
+        <v>2124.055635127398</v>
       </c>
       <c r="R22" t="n">
-        <v>1800.798405294154</v>
+        <v>2104.119692552745</v>
       </c>
       <c r="S22" t="n">
-        <v>1644.203548008749</v>
+        <v>1983.064700182603</v>
       </c>
       <c r="T22" t="n">
-        <v>1434.451719820136</v>
+        <v>1808.852736909252</v>
       </c>
       <c r="U22" t="n">
-        <v>1181.450483200945</v>
+        <v>1591.391365205324</v>
       </c>
       <c r="V22" t="n">
-        <v>937.361648975152</v>
+        <v>1382.842395894794</v>
       </c>
       <c r="W22" t="n">
-        <v>688.0888953187111</v>
+        <v>1169.109507153616</v>
       </c>
       <c r="X22" t="n">
-        <v>479.5419440130794</v>
+        <v>996.1024207632465</v>
       </c>
       <c r="Y22" t="n">
-        <v>284.6031562365289</v>
+        <v>836.7034979019588</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2340.613014133291</v>
+        <v>2080.954409242187</v>
       </c>
       <c r="C23" t="n">
-        <v>1960.285334281245</v>
+        <v>1736.166594305405</v>
       </c>
       <c r="D23" t="n">
-        <v>1585.618315208991</v>
+        <v>1397.039440148413</v>
       </c>
       <c r="E23" t="n">
-        <v>1201.075010560572</v>
+        <v>1048.036000415257</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489448</v>
+        <v>692.3423641188925</v>
       </c>
       <c r="G23" t="n">
-        <v>430.9101360764616</v>
+        <v>348.9508557616723</v>
       </c>
       <c r="H23" t="n">
-        <v>149.7985495388648</v>
+        <v>103.3791341393379</v>
       </c>
       <c r="I23" t="n">
-        <v>93.2436976906228</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>336.549618674113</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>874.7091197831526</v>
       </c>
       <c r="L23" t="n">
-        <v>1598.180070079655</v>
+        <v>1587.300519595391</v>
       </c>
       <c r="M23" t="n">
-        <v>2374.498661071409</v>
+        <v>2363.619110587144</v>
       </c>
       <c r="N23" t="n">
-        <v>3127.679677710027</v>
+        <v>3116.800127225762</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127132</v>
+        <v>3760.430983642867</v>
       </c>
       <c r="P23" t="n">
-        <v>4300.467232046283</v>
+        <v>3760.430983642867</v>
       </c>
       <c r="Q23" t="n">
-        <v>4621.628238841575</v>
+        <v>4081.591990438159</v>
       </c>
       <c r="R23" t="n">
-        <v>4662.18488453114</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="S23" t="n">
-        <v>4556.700720159925</v>
+        <v>4048.263060861982</v>
       </c>
       <c r="T23" t="n">
-        <v>4364.291146941469</v>
+        <v>3891.393352558789</v>
       </c>
       <c r="U23" t="n">
-        <v>4137.027566035664</v>
+        <v>3699.669636568247</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.986922206829</v>
+        <v>3415.168857654675</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176683</v>
+        <v>3096.745332539791</v>
       </c>
       <c r="X23" t="n">
-        <v>3092.17704518032</v>
+        <v>2761.438710458691</v>
       </c>
       <c r="Y23" t="n">
-        <v>2721.037282963095</v>
+        <v>2425.838813156729</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>772.0745395771571</v>
+        <v>761.1949890928931</v>
       </c>
       <c r="C24" t="n">
-        <v>638.0794683261029</v>
+        <v>627.1999178418388</v>
       </c>
       <c r="D24" t="n">
-        <v>521.1823105454953</v>
+        <v>510.3027600612312</v>
       </c>
       <c r="E24" t="n">
-        <v>400.6894945378233</v>
+        <v>389.8099440535592</v>
       </c>
       <c r="F24" t="n">
-        <v>291.7296147203278</v>
+        <v>280.8500642360638</v>
       </c>
       <c r="G24" t="n">
-        <v>184.7395020346666</v>
+        <v>173.8599515504025</v>
       </c>
       <c r="H24" t="n">
-        <v>113.9922890703826</v>
+        <v>103.1127385861185</v>
       </c>
       <c r="I24" t="n">
-        <v>93.2436976906228</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J24" t="n">
-        <v>286.056555253256</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="K24" t="n">
-        <v>741.8628115185547</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="L24" t="n">
-        <v>741.8628115185547</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="M24" t="n">
-        <v>1584.839892213121</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="N24" t="n">
-        <v>1584.839892213121</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="O24" t="n">
-        <v>1584.839892213121</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="P24" t="n">
-        <v>2110.173374178493</v>
+        <v>1749.449359010245</v>
       </c>
       <c r="Q24" t="n">
-        <v>2110.173374178493</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="R24" t="n">
-        <v>2139.732893541123</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="S24" t="n">
-        <v>2031.742883655432</v>
+        <v>2020.863333171168</v>
       </c>
       <c r="T24" t="n">
-        <v>1872.40101984244</v>
+        <v>1861.521469358176</v>
       </c>
       <c r="U24" t="n">
-        <v>1675.050208980659</v>
+        <v>1664.170658496394</v>
       </c>
       <c r="V24" t="n">
-        <v>1461.338681973692</v>
+        <v>1450.459131489428</v>
       </c>
       <c r="W24" t="n">
-        <v>1248.105513710021</v>
+        <v>1237.225963225757</v>
       </c>
       <c r="X24" t="n">
-        <v>1071.779531848914</v>
+        <v>1060.89998136465</v>
       </c>
       <c r="Y24" t="n">
-        <v>912.3775722127438</v>
+        <v>901.4980217284798</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>234.5401592942214</v>
+        <v>714.3405672578618</v>
       </c>
       <c r="C25" t="n">
-        <v>93.2436976906228</v>
+        <v>608.5839705695259</v>
       </c>
       <c r="D25" t="n">
-        <v>93.2436976906228</v>
+        <v>514.4261016423834</v>
       </c>
       <c r="E25" t="n">
-        <v>93.2436976906228</v>
+        <v>418.8520622606507</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>319.5577121211895</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>217.6440967966805</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>133.3734173520847</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J25" t="n">
-        <v>136.5301994049079</v>
+        <v>160.4832705240928</v>
       </c>
       <c r="K25" t="n">
-        <v>320.2864794362205</v>
+        <v>379.0721721588544</v>
       </c>
       <c r="L25" t="n">
-        <v>609.3875320253558</v>
+        <v>703.0058463514388</v>
       </c>
       <c r="M25" t="n">
-        <v>927.8555407749236</v>
+        <v>1056.306476704455</v>
       </c>
       <c r="N25" t="n">
-        <v>1237.898275478248</v>
+        <v>1401.181833011229</v>
       </c>
       <c r="O25" t="n">
-        <v>1526.662838113797</v>
+        <v>1724.779017250227</v>
       </c>
       <c r="P25" t="n">
-        <v>1761.542230672484</v>
+        <v>1994.491031412363</v>
       </c>
       <c r="Q25" t="n">
-        <v>1856.27421278407</v>
+        <v>2124.055635127397</v>
       </c>
       <c r="R25" t="n">
-        <v>1800.798405294154</v>
+        <v>2104.119692552745</v>
       </c>
       <c r="S25" t="n">
-        <v>1644.203548008749</v>
+        <v>1983.064700182602</v>
       </c>
       <c r="T25" t="n">
-        <v>1434.451719820136</v>
+        <v>1808.852736909252</v>
       </c>
       <c r="U25" t="n">
-        <v>1181.450483200945</v>
+        <v>1591.391365205324</v>
       </c>
       <c r="V25" t="n">
-        <v>937.361648975152</v>
+        <v>1382.842395894793</v>
       </c>
       <c r="W25" t="n">
-        <v>688.0888953187111</v>
+        <v>1169.109507153615</v>
       </c>
       <c r="X25" t="n">
-        <v>479.5419440130794</v>
+        <v>996.1024207632463</v>
       </c>
       <c r="Y25" t="n">
-        <v>284.6031562365289</v>
+        <v>836.7034979019586</v>
       </c>
     </row>
     <row r="26">
@@ -6205,19 +6205,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C26" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D26" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G26" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H26" t="n">
         <v>149.7985495388648</v>
@@ -6226,10 +6226,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6241,7 +6241,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O26" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P26" t="n">
         <v>4300.467232046283</v>
@@ -6265,10 +6265,10 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W26" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X26" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y26" t="n">
         <v>2721.037282963096</v>
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M27" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N27" t="n">
-        <v>1406.216283632599</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
         <v>2110.173374178493</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>222.9414315330279</v>
+        <v>338.77102545249</v>
       </c>
       <c r="C28" t="n">
-        <v>222.9414315330279</v>
+        <v>338.77102545249</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>338.77102545249</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>338.77102545249</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>203.9368103977661</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S28" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T28" t="n">
-        <v>1434.451719820136</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U28" t="n">
-        <v>1181.450483200945</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V28" t="n">
-        <v>937.361648975152</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W28" t="n">
-        <v>688.0888953187111</v>
+        <v>900.1595600940318</v>
       </c>
       <c r="X28" t="n">
-        <v>479.5419440130794</v>
+        <v>691.6126087884001</v>
       </c>
       <c r="Y28" t="n">
-        <v>284.6031562365289</v>
+        <v>496.6738210118496</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G29" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764622</v>
       </c>
       <c r="H29" t="n">
         <v>149.7985495388648</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159926</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.29114694147</v>
       </c>
       <c r="U29" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035666</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176685</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180322</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M30" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N30" t="n">
-        <v>966.9017898022406</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O30" t="n">
-        <v>1670.858880348135</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P30" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
         <v>2110.173374178493</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>284.6031562365289</v>
+        <v>637.9417588857128</v>
       </c>
       <c r="C31" t="n">
-        <v>224.3576019876185</v>
+        <v>496.6452972821141</v>
       </c>
       <c r="D31" t="n">
-        <v>224.3576019876185</v>
+        <v>496.6452972821141</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>365.5313929851185</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G31" t="n">
         <v>93.2436976906228</v>
@@ -6645,28 +6645,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S31" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T31" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U31" t="n">
-        <v>1181.450483200945</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="V31" t="n">
-        <v>937.361648975152</v>
+        <v>1448.603047183695</v>
       </c>
       <c r="W31" t="n">
-        <v>688.0888953187111</v>
+        <v>1199.330293527255</v>
       </c>
       <c r="X31" t="n">
-        <v>479.5419440130794</v>
+        <v>990.7833422216229</v>
       </c>
       <c r="Y31" t="n">
-        <v>284.6031562365289</v>
+        <v>795.8445544450724</v>
       </c>
     </row>
     <row r="32">
@@ -6727,22 +6727,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T32" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U32" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V32" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W32" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X32" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y32" t="n">
         <v>2721.037282963096</v>
@@ -6779,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>2053.115206569777</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>2053.115206569777</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
         <v>2110.173374178493</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>284.6031562365289</v>
+        <v>530.1860997593516</v>
       </c>
       <c r="C34" t="n">
-        <v>284.6031562365289</v>
+        <v>530.1860997593516</v>
       </c>
       <c r="D34" t="n">
-        <v>154.9054223941237</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6900,10 +6900,10 @@
         <v>688.0888953187111</v>
       </c>
       <c r="X34" t="n">
-        <v>479.5419440130794</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="Y34" t="n">
-        <v>284.6031562365289</v>
+        <v>688.0888953187111</v>
       </c>
     </row>
     <row r="35">
@@ -6916,19 +6916,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C35" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D35" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E35" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F35" t="n">
-        <v>809.8415093489452</v>
+        <v>809.8415093489446</v>
       </c>
       <c r="G35" t="n">
-        <v>430.9101360764622</v>
+        <v>430.9101360764616</v>
       </c>
       <c r="H35" t="n">
         <v>149.7985495388648</v>
@@ -6937,10 +6937,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K35" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6952,7 +6952,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O35" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P35" t="n">
         <v>4300.467232046283</v>
@@ -6967,7 +6967,7 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T35" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U35" t="n">
         <v>4137.027566035664</v>
@@ -7016,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M36" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N36" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O36" t="n">
-        <v>1253.007044501816</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>1814.712936990346</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
         <v>2110.173374178493</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>371.9936395339932</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="C37" t="n">
-        <v>230.6971779303946</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="D37" t="n">
-        <v>230.6971779303946</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="E37" t="n">
-        <v>230.6971779303946</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="F37" t="n">
-        <v>230.6971779303946</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="G37" t="n">
         <v>93.2436976906228</v>
@@ -7128,19 +7128,19 @@
         <v>1434.451719820136</v>
       </c>
       <c r="U37" t="n">
-        <v>1231.804974281219</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V37" t="n">
-        <v>987.7161400554253</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W37" t="n">
-        <v>738.4433863989846</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X37" t="n">
-        <v>529.8964350933528</v>
+        <v>479.5419440130794</v>
       </c>
       <c r="Y37" t="n">
-        <v>529.8964350933528</v>
+        <v>284.6031562365289</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C38" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D38" t="n">
         <v>1585.618315208991</v>
@@ -7162,10 +7162,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F38" t="n">
-        <v>809.8415093489452</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G38" t="n">
-        <v>430.9101360764622</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H38" t="n">
         <v>149.7985495388648</v>
@@ -7174,10 +7174,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7189,7 +7189,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O38" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P38" t="n">
         <v>4300.467232046283</v>
@@ -7213,7 +7213,7 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X38" t="n">
         <v>3092.17704518032</v>
@@ -7256,19 +7256,19 @@
         <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>286.056555253256</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M39" t="n">
-        <v>1129.033635947823</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>1129.033635947823</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
         <v>1760.328909494509</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>458.5427745949822</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="C40" t="n">
-        <v>317.2463129913835</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="D40" t="n">
-        <v>317.2463129913835</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="E40" t="n">
-        <v>317.2463129913835</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="F40" t="n">
-        <v>317.2463129913835</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="G40" t="n">
         <v>179.7928327516118</v>
@@ -7362,22 +7362,22 @@
         <v>1644.203548008749</v>
       </c>
       <c r="T40" t="n">
-        <v>1644.203548008749</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U40" t="n">
-        <v>1391.202311389558</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V40" t="n">
-        <v>1147.113477163765</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W40" t="n">
-        <v>1019.931309236524</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X40" t="n">
-        <v>811.3843579308923</v>
+        <v>479.5419440130794</v>
       </c>
       <c r="Y40" t="n">
-        <v>616.4455701543418</v>
+        <v>284.6031562365289</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C41" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D41" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E41" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F41" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G41" t="n">
-        <v>430.9101360764616</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H41" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388649</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7426,7 +7426,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
         <v>4300.467232046283</v>
@@ -7441,22 +7441,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T41" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U41" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V41" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W41" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X41" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y41" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>445.7409521033313</v>
+        <v>615.1623417934811</v>
       </c>
       <c r="C43" t="n">
-        <v>445.7409521033313</v>
+        <v>473.8658801898823</v>
       </c>
       <c r="D43" t="n">
-        <v>445.7409521033313</v>
+        <v>344.1681463474771</v>
       </c>
       <c r="E43" t="n">
-        <v>314.6270478063357</v>
+        <v>213.0542420504814</v>
       </c>
       <c r="F43" t="n">
-        <v>179.7928327516118</v>
+        <v>213.0542420504814</v>
       </c>
       <c r="G43" t="n">
-        <v>179.7928327516118</v>
+        <v>213.0542420504814</v>
       </c>
       <c r="H43" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>136.5301994049079</v>
+        <v>136.5301994049078</v>
       </c>
       <c r="K43" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L43" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M43" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N43" t="n">
         <v>1237.898275478248</v>
@@ -7596,25 +7596,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S43" t="n">
-        <v>1753.492311246298</v>
+        <v>1779.823945789151</v>
       </c>
       <c r="T43" t="n">
-        <v>1753.492311246298</v>
+        <v>1570.072117600538</v>
       </c>
       <c r="U43" t="n">
-        <v>1500.491074627107</v>
+        <v>1317.070880981347</v>
       </c>
       <c r="V43" t="n">
-        <v>1256.402240401314</v>
+        <v>1072.982046755554</v>
       </c>
       <c r="W43" t="n">
-        <v>1007.129486744873</v>
+        <v>823.709293099113</v>
       </c>
       <c r="X43" t="n">
-        <v>798.5825354392414</v>
+        <v>615.1623417934811</v>
       </c>
       <c r="Y43" t="n">
-        <v>603.6437476626909</v>
+        <v>615.1623417934811</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C44" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D44" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E44" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F44" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G44" t="n">
-        <v>430.9101360764629</v>
+        <v>430.9101360764616</v>
       </c>
       <c r="H44" t="n">
         <v>149.7985495388648</v>
@@ -7648,10 +7648,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K44" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L44" t="n">
         <v>1598.180070079655</v>
@@ -7663,7 +7663,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P44" t="n">
         <v>4300.467232046283</v>
@@ -7678,22 +7678,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T44" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U44" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V44" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W44" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X44" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y44" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>1458.288960155805</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2019.994852644335</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>838.6631438684582</v>
+        <v>548.5228536411028</v>
       </c>
       <c r="C46" t="n">
-        <v>697.3666822648595</v>
+        <v>407.2263920375041</v>
       </c>
       <c r="D46" t="n">
-        <v>567.6689484224544</v>
+        <v>344.168146347477</v>
       </c>
       <c r="E46" t="n">
-        <v>436.5550441254587</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="F46" t="n">
-        <v>436.5550441254587</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="G46" t="n">
-        <v>299.6033771114703</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H46" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7833,25 +7833,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S46" t="n">
-        <v>1699.679355498665</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T46" t="n">
-        <v>1489.927527310052</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.927527310052</v>
+        <v>1603.272976164879</v>
       </c>
       <c r="V46" t="n">
-        <v>1245.838693084258</v>
+        <v>1359.184141939085</v>
       </c>
       <c r="W46" t="n">
-        <v>996.5659394278177</v>
+        <v>1109.911388282645</v>
       </c>
       <c r="X46" t="n">
-        <v>996.5659394278177</v>
+        <v>901.3644369770128</v>
       </c>
       <c r="Y46" t="n">
-        <v>996.5659394278177</v>
+        <v>706.4256492004623</v>
       </c>
     </row>
   </sheetData>
@@ -7978,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>272.5201416453126</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L2" t="n">
-        <v>485.6381778130617</v>
+        <v>145.4693717673035</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N2" t="n">
         <v>483.0650705068362</v>
@@ -8063,16 +8063,16 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L3" t="n">
-        <v>272.5176252944898</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>244.2964801173478</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
@@ -8081,7 +8081,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>329.5771420493664</v>
       </c>
       <c r="L5" t="n">
-        <v>460.0397469054438</v>
+        <v>613.6136257682572</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>611.4184521624578</v>
       </c>
       <c r="N5" t="n">
-        <v>515.5075023816069</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>515.7849872507707</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>516.2445749058717</v>
+        <v>611.7775909862964</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>478.4209944096029</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>478.7097354358366</v>
+        <v>551.1575635101549</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
@@ -8309,16 +8309,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>109.8938894643986</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>476.8548466277913</v>
+        <v>572.3878627082161</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,25 +8455,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>272.0504334731806</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>593.8823835359372</v>
       </c>
       <c r="O8" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8531,13 +8531,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>500.8626362276487</v>
       </c>
       <c r="L9" t="n">
-        <v>66.8161563599358</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
         <v>579.627854108443</v>
@@ -8546,13 +8546,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8710,7 +8710,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681334</v>
+        <v>132.7090615043082</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
@@ -8777,22 +8777,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>263.9099299663044</v>
       </c>
       <c r="O12" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>743.321953824879</v>
+        <v>739.3408671483234</v>
       </c>
       <c r="P14" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476415</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>613.6913745331453</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
         <v>877.4504173780091</v>
@@ -9181,10 +9181,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
-        <v>628.1510783507341</v>
+        <v>414.0733339733104</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9251,19 +9251,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>728.6283969849262</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>204.0221919942796</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9403,7 +9403,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389136</v>
+        <v>418.6541009614897</v>
       </c>
       <c r="L20" t="n">
         <v>815.2746908024792</v>
@@ -9421,7 +9421,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9479,19 +9479,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>90.72066712971576</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
         <v>768.8192472281761</v>
@@ -9655,13 +9655,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P23" t="n">
-        <v>628.1510783507342</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q23" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>128.2784515920617</v>
+        <v>124.2973649155061</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,10 +9722,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476415</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
@@ -9734,10 +9734,10 @@
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>584.8995157759063</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>711.6624984671718</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>418.7392830976428</v>
       </c>
       <c r="P30" t="n">
-        <v>498.0116489728624</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>115.3859917360771</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>88.85829947169823</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10664,7 +10664,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>516.2361426485535</v>
@@ -10679,13 +10679,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>355.137504553472</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,22 +10904,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>695.4234724815018</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>741.5205988334646</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11375,13 +11375,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11390,16 +11390,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>177.6401345621998</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>76.76072710101651</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>207.654309906727</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501641</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>99.81266623873913</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.61243891626</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>26.04054500395861</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>106.7614006308816</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106.7614006308816</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.2786601473</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>136.078945437374</v>
+        <v>112.1764075676813</v>
       </c>
       <c r="H28" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>80.24039828114135</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>128.4007565039811</v>
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>118.6124389162599</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>200.7367105584425</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>36.20280651995267</v>
       </c>
       <c r="E34" t="n">
-        <v>68.7576577975598</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F34" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G34" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D37" t="n">
         <v>128.4007565039811</v>
@@ -25326,7 +25326,7 @@
         <v>133.4858729041767</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>102.956849080693</v>
       </c>
       <c r="H37" t="n">
         <v>118.6124389162599</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>49.8509461694706</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>52.56154735369805</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D40" t="n">
         <v>128.4007565039811</v>
@@ -25563,7 +25563,7 @@
         <v>133.4858729041767</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H40" t="n">
         <v>118.6124389162599</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>120.869679871908</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C43" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G43" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H43" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>85.68364371037919</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>108.1958756051734</v>
+        <v>134.2641938025983</v>
       </c>
       <c r="T43" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>65.97309327085426</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>133.4858729041767</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4967950935254919</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>54.92104941501636</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U46" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>572580.2684177826</v>
+        <v>581810.1087430962</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>607151.2245415293</v>
+        <v>614180.7386521682</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>607151.2245415293</v>
+        <v>614180.7386521682</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>607151.2245415293</v>
+        <v>614180.7386521682</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>607151.2245415294</v>
+        <v>614180.7386521682</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>607151.2245415294</v>
+        <v>614180.7386521682</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>607151.2245415294</v>
+        <v>607151.2245415293</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>635241.332826582</v>
+        <v>635241.3328265818</v>
       </c>
       <c r="C2" t="n">
-        <v>635241.3328265824</v>
+        <v>635241.3328265821</v>
       </c>
       <c r="D2" t="n">
         <v>635241.3328265821</v>
       </c>
       <c r="E2" t="n">
-        <v>615612.8085600272</v>
+        <v>635241.3328265816</v>
       </c>
       <c r="F2" t="n">
-        <v>615612.8085600274</v>
+        <v>635241.3328265817</v>
       </c>
       <c r="G2" t="n">
-        <v>615612.8085600274</v>
+        <v>635241.3328265816</v>
       </c>
       <c r="H2" t="n">
-        <v>615612.8085600276</v>
+        <v>635241.3328265816</v>
       </c>
       <c r="I2" t="n">
-        <v>615612.8085600275</v>
+        <v>635241.3328265819</v>
       </c>
       <c r="J2" t="n">
         <v>615612.8085600276</v>
@@ -26343,16 +26343,16 @@
         <v>615612.8085600277</v>
       </c>
       <c r="L2" t="n">
-        <v>615612.8085600277</v>
+        <v>615612.8085600274</v>
       </c>
       <c r="M2" t="n">
-        <v>615612.8085600277</v>
+        <v>615612.8085600275</v>
       </c>
       <c r="N2" t="n">
-        <v>615612.8085600275</v>
+        <v>615612.8085600276</v>
       </c>
       <c r="O2" t="n">
-        <v>615612.8085600275</v>
+        <v>615612.8085600269</v>
       </c>
       <c r="P2" t="n">
         <v>615612.8085600274</v>
@@ -26368,13 +26368,13 @@
         <v>130749.1700082319</v>
       </c>
       <c r="C3" t="n">
-        <v>10481.19872129042</v>
+        <v>41345.11576204227</v>
       </c>
       <c r="D3" t="n">
-        <v>30897.85627697116</v>
+        <v>1222.435491908825</v>
       </c>
       <c r="E3" t="n">
-        <v>215728.9162805135</v>
+        <v>203271.5589872691</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,28 +26383,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>125680.2872860361</v>
+        <v>161262.4011223462</v>
       </c>
       <c r="K3" t="n">
-        <v>8349.643806745968</v>
+        <v>32936.78508933267</v>
       </c>
       <c r="L3" t="n">
-        <v>25174.54638314042</v>
+        <v>995.9998103296416</v>
       </c>
       <c r="M3" t="n">
-        <v>160358.4505006828</v>
+        <v>126468.1067646758</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>23599.15338107035</v>
+        <v>23599.15338107037</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>255180.0220455301</v>
       </c>
       <c r="C4" t="n">
-        <v>249570.8792774503</v>
+        <v>233053.67340556</v>
       </c>
       <c r="D4" t="n">
-        <v>232373.2713033891</v>
+        <v>232373.271303389</v>
       </c>
       <c r="E4" t="n">
-        <v>148366.1238023681</v>
+        <v>175284.6946798806</v>
       </c>
       <c r="F4" t="n">
-        <v>148366.1238023682</v>
+        <v>175284.6946798805</v>
       </c>
       <c r="G4" t="n">
-        <v>148366.1238023682</v>
+        <v>175284.6946798806</v>
       </c>
       <c r="H4" t="n">
-        <v>148366.1238023682</v>
+        <v>175284.6946798806</v>
       </c>
       <c r="I4" t="n">
-        <v>148366.1238023682</v>
+        <v>175284.6946798805</v>
       </c>
       <c r="J4" t="n">
         <v>148366.1238023682</v>
@@ -26472,25 +26472,25 @@
         <v>57348.88900881319</v>
       </c>
       <c r="C5" t="n">
-        <v>59321.38886679924</v>
+        <v>65129.79624448907</v>
       </c>
       <c r="D5" t="n">
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>73345.15677686482</v>
+        <v>68034.62130334972</v>
       </c>
       <c r="F5" t="n">
-        <v>73345.15677686482</v>
+        <v>68034.62130334972</v>
       </c>
       <c r="G5" t="n">
-        <v>73345.15677686482</v>
+        <v>68034.62130334972</v>
       </c>
       <c r="H5" t="n">
-        <v>73345.15677686482</v>
+        <v>68034.62130334972</v>
       </c>
       <c r="I5" t="n">
-        <v>73345.15677686482</v>
+        <v>68034.62130334972</v>
       </c>
       <c r="J5" t="n">
         <v>73345.15677686482</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>191963.2517640068</v>
+        <v>191963.2517640066</v>
       </c>
       <c r="C6" t="n">
-        <v>315867.8659610425</v>
+        <v>295712.7474144908</v>
       </c>
       <c r="D6" t="n">
-        <v>306601.1401677243</v>
+        <v>336276.5609527867</v>
       </c>
       <c r="E6" t="n">
-        <v>178172.6117002807</v>
+        <v>188650.4578560822</v>
       </c>
       <c r="F6" t="n">
-        <v>393901.5279807944</v>
+        <v>391922.0168433514</v>
       </c>
       <c r="G6" t="n">
-        <v>393901.5279807944</v>
+        <v>391922.0168433512</v>
       </c>
       <c r="H6" t="n">
-        <v>393901.5279807945</v>
+        <v>391922.0168433512</v>
       </c>
       <c r="I6" t="n">
-        <v>393901.5279807944</v>
+        <v>391922.0168433517</v>
       </c>
       <c r="J6" t="n">
-        <v>268221.2406947584</v>
+        <v>232588.797309047</v>
       </c>
       <c r="K6" t="n">
-        <v>385551.8841740487</v>
+        <v>360914.4133420606</v>
       </c>
       <c r="L6" t="n">
-        <v>368726.9815976543</v>
+        <v>392855.1986210633</v>
       </c>
       <c r="M6" t="n">
-        <v>233543.0774801119</v>
+        <v>267383.0916667172</v>
       </c>
       <c r="N6" t="n">
-        <v>393901.5279807944</v>
+        <v>393851.1984313932</v>
       </c>
       <c r="O6" t="n">
-        <v>370302.3745997241</v>
+        <v>370252.0450503221</v>
       </c>
       <c r="P6" t="n">
-        <v>393901.5279807944</v>
+        <v>393851.1984313929</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="H2" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="I2" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="J2" t="n">
         <v>29.498941726338</v>
@@ -26724,7 +26724,7 @@
         <v>29.498941726338</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="P2" t="n">
         <v>29.49894172633799</v>
@@ -26792,25 +26792,25 @@
         <v>390.1527797502169</v>
       </c>
       <c r="C4" t="n">
-        <v>422.5952116249875</v>
+        <v>518.1282277054123</v>
       </c>
       <c r="D4" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>1165.546221132785</v>
+        <v>1029.551840079484</v>
       </c>
       <c r="F4" t="n">
-        <v>1165.546221132785</v>
+        <v>1029.551840079484</v>
       </c>
       <c r="G4" t="n">
-        <v>1165.546221132785</v>
+        <v>1029.551840079484</v>
       </c>
       <c r="H4" t="n">
-        <v>1165.546221132785</v>
+        <v>1029.551840079484</v>
       </c>
       <c r="I4" t="n">
-        <v>1165.546221132785</v>
+        <v>1029.551840079484</v>
       </c>
       <c r="J4" t="n">
         <v>1165.546221132785</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26925,13 +26925,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,13 +26940,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="C4" t="n">
-        <v>32.44243187477063</v>
+        <v>127.9754479551954</v>
       </c>
       <c r="D4" t="n">
-        <v>99.46835874503803</v>
+        <v>3.935342664613287</v>
       </c>
       <c r="E4" t="n">
-        <v>643.4826507627594</v>
+        <v>507.488269709458</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>390.152779750217</v>
+        <v>526.1471608035183</v>
       </c>
       <c r="K4" t="n">
-        <v>32.44243187477063</v>
+        <v>127.9754479551954</v>
       </c>
       <c r="L4" t="n">
-        <v>99.46835874503803</v>
+        <v>3.935342664613287</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627594</v>
+        <v>507.488269709458</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27162,13 +27162,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="K4" t="n">
-        <v>32.44243187477063</v>
+        <v>127.9754479551954</v>
       </c>
       <c r="L4" t="n">
-        <v>99.46835874503803</v>
+        <v>3.935342664613287</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627594</v>
+        <v>507.488269709458</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.96618811762767</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>15.87056502964566</v>
+      </c>
+      <c r="D2" t="n">
+        <v>266.0794299051221</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>152.9253133059354</v>
-      </c>
-      <c r="E2" t="n">
-        <v>20.04403357805535</v>
-      </c>
       <c r="F2" t="n">
-        <v>26.66732817563241</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>72.69811923316104</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>120.7400293859436</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27523,10 +27523,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="4">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>129.3301592135989</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>119.5320811506146</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>4.212028501543273</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>49.42809012809845</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -27678,10 +27678,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27754,16 +27754,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>46.99117962805019</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>15.27227781283099</v>
       </c>
     </row>
     <row r="7">
@@ -27776,10 +27776,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -27794,7 +27794,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>155.87030594178</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>100.2148439831909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>11.75949205792773</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>146.4239395205296</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75.20277457702075</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>41.88054861921441</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244817</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244859</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633794</v>
+        <v>64.68340799244808</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="C20" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="D20" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="E20" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="F20" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="G20" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="H20" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="I20" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="T20" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="U20" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="V20" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="W20" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="X20" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="C22" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="D22" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="E22" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="F22" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="G22" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="H22" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="I22" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="J22" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="K22" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="L22" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="M22" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="N22" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="O22" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="P22" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="R22" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="S22" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="T22" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="U22" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="V22" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="W22" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="X22" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="C23" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="D23" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="E23" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="F23" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="G23" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="H23" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="I23" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="T23" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="U23" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="V23" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="W23" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="X23" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="C25" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="D25" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="E25" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="F25" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="G25" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="H25" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="I25" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="J25" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="K25" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="L25" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="M25" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="N25" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="O25" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="P25" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="R25" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="S25" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="T25" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="U25" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="V25" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="W25" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="X25" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.498941726338</v>
+        <v>64.68340799244812</v>
       </c>
     </row>
     <row r="26">
@@ -30288,7 +30288,7 @@
         <v>29.498941726338</v>
       </c>
       <c r="X38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633748</v>
       </c>
       <c r="Y38" t="n">
         <v>29.498941726338</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="C41" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="D41" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="E41" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="F41" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="G41" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="H41" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="I41" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="T41" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="U41" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="V41" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="W41" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="X41" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="Y41" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="C43" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="D43" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="E43" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="F43" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="G43" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="H43" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="I43" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="J43" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="K43" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="L43" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="M43" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="N43" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="O43" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="P43" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="R43" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="S43" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="T43" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="U43" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="V43" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="W43" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="X43" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633792</v>
       </c>
     </row>
     <row r="44">
@@ -34698,16 +34698,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>183.3837519720955</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L2" t="n">
+        <v>49.98397370445868</v>
+      </c>
+      <c r="M2" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>390.1527797502169</v>
@@ -34783,16 +34783,16 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L3" t="n">
-        <v>216.4031014836408</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>240.4407523761492</v>
       </c>
       <c r="L5" t="n">
-        <v>364.554348842599</v>
+        <v>518.1282277054123</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>518.1282277054123</v>
       </c>
       <c r="N5" t="n">
-        <v>422.5952116249875</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>422.5952116249875</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>422.5952116249875</v>
+        <v>518.1282277054123</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>422.5952116249875</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>422.5952116249875</v>
+        <v>495.0430396993058</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>52.14241046439861</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>422.5952116249875</v>
+        <v>518.1282277054123</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
-        <v>176.5650354103358</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="L9" t="n">
-        <v>10.70163254908676</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>522.0635703700256</v>
@@ -35266,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35430,7 +35430,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689814</v>
+        <v>42.6752571051561</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>210.7165365725545</v>
       </c>
       <c r="O12" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533847</v>
+        <v>78.9082053714487</v>
       </c>
       <c r="K13" t="n">
-        <v>185.6124040720329</v>
+        <v>220.7968703381431</v>
       </c>
       <c r="L13" t="n">
-        <v>292.0212652415506</v>
+        <v>327.2057315076609</v>
       </c>
       <c r="M13" t="n">
-        <v>321.6848573227958</v>
+        <v>356.869323588906</v>
       </c>
       <c r="N13" t="n">
-        <v>313.1744794983079</v>
+        <v>348.3589457644181</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995441</v>
+        <v>326.8658426656544</v>
       </c>
       <c r="P13" t="n">
-        <v>237.2519116754413</v>
+        <v>272.4363779415515</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978322</v>
+        <v>130.8733370858935</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35661,16 +35661,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>650.1321781990958</v>
+        <v>646.1510915225402</v>
       </c>
       <c r="P14" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>461.3739449367924</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>560.4979811393954</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533847</v>
+        <v>78.90820537144862</v>
       </c>
       <c r="K16" t="n">
-        <v>185.6124040720329</v>
+        <v>220.796870338143</v>
       </c>
       <c r="L16" t="n">
-        <v>292.0212652415506</v>
+        <v>327.2057315076607</v>
       </c>
       <c r="M16" t="n">
-        <v>321.6848573227958</v>
+        <v>356.8693235889059</v>
       </c>
       <c r="N16" t="n">
-        <v>313.1744794983079</v>
+        <v>348.3589457644181</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995441</v>
+        <v>326.8658426656543</v>
       </c>
       <c r="P16" t="n">
-        <v>237.2519116754413</v>
+        <v>272.4363779415515</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978322</v>
+        <v>130.8733370858934</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
         <v>784.1601929209636</v>
@@ -35901,10 +35901,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>534.50171506985</v>
+        <v>320.4239706924262</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35971,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>671.0641132465088</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>146.2707129942796</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>29.85810036629282</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533847</v>
+        <v>78.90820537144862</v>
       </c>
       <c r="K19" t="n">
-        <v>185.6124040720329</v>
+        <v>220.796870338143</v>
       </c>
       <c r="L19" t="n">
-        <v>292.0212652415506</v>
+        <v>327.2057315076607</v>
       </c>
       <c r="M19" t="n">
-        <v>321.6848573227958</v>
+        <v>356.8693235889059</v>
       </c>
       <c r="N19" t="n">
-        <v>313.1744794983079</v>
+        <v>348.3589457644181</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995441</v>
+        <v>326.8658426656543</v>
       </c>
       <c r="P19" t="n">
-        <v>237.2519116754413</v>
+        <v>272.4363779415515</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978322</v>
+        <v>130.8733370858934</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656965</v>
+        <v>329.5177112882726</v>
       </c>
       <c r="L20" t="n">
         <v>719.7892927396343</v>
@@ -36141,7 +36141,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>40.9663087773382</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>33.15638339129833</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>711.0677682281761</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533852</v>
+        <v>78.90820537144864</v>
       </c>
       <c r="K22" t="n">
-        <v>185.6124040720329</v>
+        <v>220.796870338143</v>
       </c>
       <c r="L22" t="n">
-        <v>292.0212652415507</v>
+        <v>327.2057315076608</v>
       </c>
       <c r="M22" t="n">
-        <v>321.6848573227958</v>
+        <v>356.869323588906</v>
       </c>
       <c r="N22" t="n">
-        <v>313.174479498308</v>
+        <v>348.3589457644181</v>
       </c>
       <c r="O22" t="n">
-        <v>291.6813763995442</v>
+        <v>326.8658426656543</v>
       </c>
       <c r="P22" t="n">
-        <v>237.2519116754414</v>
+        <v>272.4363779415515</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978329</v>
+        <v>130.8733370858934</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36375,13 +36375,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P23" t="n">
-        <v>534.5017150698501</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
-        <v>40.9663087773382</v>
+        <v>36.98522210078261</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,10 +36442,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>461.3739449367924</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>530.6398807731025</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>29.85810036629282</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533852</v>
+        <v>78.90820537144864</v>
       </c>
       <c r="K25" t="n">
-        <v>185.6124040720329</v>
+        <v>220.796870338143</v>
       </c>
       <c r="L25" t="n">
-        <v>292.0212652415507</v>
+        <v>327.2057315076608</v>
       </c>
       <c r="M25" t="n">
-        <v>321.6848573227958</v>
+        <v>356.869323588906</v>
       </c>
       <c r="N25" t="n">
-        <v>313.174479498308</v>
+        <v>348.3589457644181</v>
       </c>
       <c r="O25" t="n">
-        <v>291.6813763995442</v>
+        <v>326.8658426656543</v>
       </c>
       <c r="P25" t="n">
-        <v>237.2519116754414</v>
+        <v>272.4363779415515</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978329</v>
+        <v>130.8733370858934</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>658.4691050734218</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>29.85810036629282</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="P30" t="n">
-        <v>443.7520139700587</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>29.85810036629282</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.63451273607708</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>29.85810036629282</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>460.4103598639381</v>
@@ -37399,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.4448860486332</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>29.85810036629282</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>637.6719934815018</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533845</v>
       </c>
       <c r="K43" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L43" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M43" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N43" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O43" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P43" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q43" t="n">
-        <v>95.68887081978328</v>
+        <v>95.6888708197832</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>120.947516057361</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
